--- a/medicine/Handicap/Les_Associés/Les_Associés.xlsx
+++ b/medicine/Handicap/Les_Associés/Les_Associés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Associ%C3%A9s</t>
+          <t>Les_Associés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Associés (Matchstick Men), ou Les Moins que rien au Québec, est un film américano-britannique réalisé par Ridley Scott et sorti en 2003. Il s'agit d'une adaptation du roman du même nom d'Eric Garcia.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Associ%C3%A9s</t>
+          <t>Les_Associés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Los Angeles, Roy Waller est un escroc très doué. Il souffre cependant de divers troubles et maladies : agoraphobie, mysophobie, syndrome de Gilles de La Tourette, trouble obsessionnel compulsif en plus d'avoir une prédisposition aux attaques de panique. Il est associé avec Franck Mercer à qui il a appris le métier. Il décide avec réticence de consulter un psychiatre, le Dr Harris Klein, pour se soigner. Ce dernier le pousse à recontacter son ex-femme Heather, qu'il n'a plus vue depuis des années alors qu'elle était enceinte. Roy découvre qu'il a une fille, Angela, âgée de quatorze ans. Roy prépare un énorme coup avec Franck : ils ont flairé un richissime « pigeon » nommé Chuck Frechette. C'est alors qu'Angela vient s'installer chez lui. Alors que Roy lui faire croire qu'il est antiquaire, l'adolescente va découvrir la vérité. Elle n'a alors qu'une envie : devenir son élève. Leur relation va alors évoluer vers une relation de travail dont personne ne sortira indemne.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Associ%C3%A9s</t>
+          <t>Les_Associés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre français : Les Associés
@@ -565,7 +581,7 @@
 Format : couleurs - 2,35:1 - 35 mm - DTS / Dolby Digital / SDDS
 Genre : comédie noire
 Durée : 116 minutes
-Dates de sortie[1] :
+Dates de sortie :
 Italie : 2 septembre 2003 (Mostra de Venise)
 Canada : 5 septembre 2003 (Festival de Toronto)
 États-Unis : 12 septembre 2003
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Associ%C3%A9s</t>
+          <t>Les_Associés</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas Cage (VF : Dominique Collignon-Maurin ; VQ : Benoit Rousseau) : Roy Waller
 Sam Rockwell (VF : Laurent Lederer ; VQ : Gilbert Lachance) : Frank Mercer
@@ -613,7 +631,7 @@
 Tim Kelleher (VQ : Pierre Auger) : l'inspecteur Bishop
 Kim Cassidy : la strip-teaseuse
 Nigel Gibbs : Holt
-Sources : voxofilm[2] doublage Québec[3]
+Sources : voxofilm doublage Québec
 </t>
         </is>
       </c>
@@ -624,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_Associ%C3%A9s</t>
+          <t>Les_Associés</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,13 +662,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Développement
-Le film est l'adaptation cinématographique du roman Matchstick Men d'Eric Garcia, publié en 2002. L'auteur explique sa fascination pour les escrocs et arnaqueurs présents dans son œuvre : « Ils nous fascinent au même degré que les gangsters - tant qu'ils restent du domaine de la fiction. Il y a chez ces hommes quelque chose de mythique qui nous attire, qui nous donne envie de les voir à l’œuvre. Peut-être est-ce l'idée qu'un peu d'astuce leur suffit, alors que le commun des mortels déploie tant d'efforts pour gagner sa vie. Leur activité nous fait rêver : si, demain, j'étais licencié et criblé de dettes, qu'est-ce qui m'interdirait de tenter ma chance et de monter, moi aussi, des coups tordus[4] ? »
-Le roman est adapté par les frères scénaristes Nicholas Griffin et Ted Griffin, qui ont rencontré deux agents du FBI, pour mieux connaître le monde de l'arnaque. Nick Griffin explique ainsi « On croit souvent que les petits escrocs ont disparu à la fin des années trente. En fait, ils existent encore bel et bien, se livrent toujours aux mêmes combines, mais ont appris à se servir de l'Internet et du télé-marketing[4] ».
-Attribution des rôles
-Alison Lohman a été choisie pour incarner une jeune fille de 14 ans alors qu'elle en avait en réalité 24 au moment du tournage[4].
-Tournage
-Le tournage a eu lieu principalement en Californie : Los Angeles (Canoga Park, Mar Vista, West Hills, Dodger Stadium, Pann's Restaurant, Venice), Culver City (Culver Studios), Anaheim (Anaheim Convention Center, Hilton Anaheim), Marina Del Rey, Torrance ; mais également au musée militaire de Rokycany en République tchèque[5].
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est l'adaptation cinématographique du roman Matchstick Men d'Eric Garcia, publié en 2002. L'auteur explique sa fascination pour les escrocs et arnaqueurs présents dans son œuvre : « Ils nous fascinent au même degré que les gangsters - tant qu'ils restent du domaine de la fiction. Il y a chez ces hommes quelque chose de mythique qui nous attire, qui nous donne envie de les voir à l’œuvre. Peut-être est-ce l'idée qu'un peu d'astuce leur suffit, alors que le commun des mortels déploie tant d'efforts pour gagner sa vie. Leur activité nous fait rêver : si, demain, j'étais licencié et criblé de dettes, qu'est-ce qui m'interdirait de tenter ma chance et de monter, moi aussi, des coups tordus ? »
+Le roman est adapté par les frères scénaristes Nicholas Griffin et Ted Griffin, qui ont rencontré deux agents du FBI, pour mieux connaître le monde de l'arnaque. Nick Griffin explique ainsi « On croit souvent que les petits escrocs ont disparu à la fin des années trente. En fait, ils existent encore bel et bien, se livrent toujours aux mêmes combines, mais ont appris à se servir de l'Internet et du télé-marketing ».
 </t>
         </is>
       </c>
@@ -661,7 +680,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Les_Associ%C3%A9s</t>
+          <t>Les_Associés</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -676,10 +695,86 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alison Lohman a été choisie pour incarner une jeune fille de 14 ans alors qu'elle en avait en réalité 24 au moment du tournage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Associés</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Associ%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a eu lieu principalement en Californie : Los Angeles (Canoga Park, Mar Vista, West Hills, Dodger Stadium, Pann's Restaurant, Venice), Culver City (Culver Studios), Anaheim (Anaheim Convention Center, Hilton Anaheim), Marina Del Rey, Torrance ; mais également au musée militaire de Rokycany en République tchèque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Associés</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Associ%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>La musique du film est composée par Hans Zimmer. Il s'agit de sa dernière collaboration avec le réalisateur Ridley Scott. Ils avaient collaborés sur de nombreux films Black Rain (1989), Thelma et Louise (1991), Lame de fond (1996), Gladiator (2000), Hannibal (2001) et La Chute du faucon noir (2001).
 Liste des titres
@@ -708,31 +803,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Les_Associ%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Associés</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Associ%C3%A9s</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
